--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/39_Isparta_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/39_Isparta_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F5F80F-D569-491A-BCB9-D8568D05F842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D705915C-19CD-4569-91CA-07D16B01909E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{4430480D-83DB-4F6E-8A0A-3DA9C7F37E1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{1E6235B0-FB2B-482C-8376-EE9C91AF81A7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="125" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{05922A2F-846D-4E8E-AF89-7AE0EE882DDA}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{26F1FD94-9ABE-4B2B-98FA-E955E30C1CBF}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{A037AC1F-F1BD-4772-9BCA-E09C41F5DDDC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{AC453EC0-CA9F-4D04-B1F4-88FEB1FD3733}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{91E28126-F996-4EA8-A8F8-B37ED6A2F851}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{0259504D-8922-4A6B-9712-D82264783540}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{61168EF1-8D31-46D9-9698-EF9F79302C08}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3A29308E-A868-46E2-9463-A2374581D3F4}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E1A656D2-6F7B-4555-A873-5A20D7155A85}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{18B74BCA-A8C7-4B97-9266-289853E3E11F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{E801F0D5-63C3-4600-AECC-4112E66C592D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{B4B29359-C049-4DBE-85CE-2D9F8EF0B40E}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{9AB674C9-9A73-46B6-A22F-39CF6A3C4C78}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{7495002A-E9D2-4283-9946-901B93B57550}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD11896-C2CE-47DD-9019-D72D50AAF47F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0F5D49-876F-47D5-9115-7A38915F7982}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2591,7 +2591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65BC86F-B7FF-47E3-8AC4-1FF576D46C65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AB67D-B91D-41D3-99A5-0C6634CD579F}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3849,7 +3849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677C7293-4AA6-4207-9989-3633CB899511}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69B6DC5-FA5A-4841-A751-4E0C69E602C2}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5107,7 +5107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43EEA06-732B-41B6-A40C-13B889307094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0FDE7-5CB7-4791-B922-857F0B1BD7D8}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6347,7 +6347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A54A5-A154-48DF-96B3-E46322C5713D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81A4C59-C39A-4659-B5FD-32758A5B6F07}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -7647,7 +7647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB984AC-BDBE-44F5-87D4-5B444DEB5697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6863618B-75FE-4B71-8695-A7448F629606}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -8947,7 +8947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B316F23-5E99-4574-A05B-9DED71926DE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DE20E-621D-4B26-A3C0-89A00ABD97EE}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10247,7 +10247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1B7420-73B3-4D2E-9DF8-E0B6AA45E153}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A605A5C8-FC7D-4302-8220-8A5EB0D25694}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11547,7 +11547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D416C4-CD40-4279-B2B3-FB95058FD085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD85019-F1D9-46E9-9418-E40AEDF8FBF1}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12843,7 +12843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791BC6C7-A179-4425-A239-08386A10DAE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB75934F-EB8E-475D-8473-3B8653AE5226}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14121,7 +14121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99111922-7DCD-4B9F-8CBF-A38A1F02A61C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19605F0-66C4-40EC-A7FF-E92F1DEE9672}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15399,7 +15399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BE5E0A-56C5-4EAA-8D53-5310783C1943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ACA01A-316C-486F-B87D-5E4353A369F6}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
